--- a/Plan/Table/인카운트이벤트테이블.xlsx
+++ b/Plan/Table/인카운트이벤트테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chepy\OneDrive\문서\FluffyDiscatDevelop\Plan\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D950E7D-A28D-4CE3-B699-684B13D8C35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385C55AF-FF7F-482D-B202-3B8C681B7980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2955" windowWidth="21450" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="174">
   <si>
     <t>id</t>
   </si>
@@ -54,170 +54,656 @@
     <t>get_gold</t>
   </si>
   <si>
-    <t>random_check</t>
+    <t>get_item</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>choice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_well</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_well1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_well2</t>
+  </si>
+  <si>
+    <t>Dialogue_event_well3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_well5</t>
+  </si>
+  <si>
+    <t>Dialogue_event_well4</t>
+  </si>
+  <si>
+    <t>Dialogue_event_well6</t>
+  </si>
+  <si>
+    <t>Dialogue_event_well7</t>
+  </si>
+  <si>
+    <t>random_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_well8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_well9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_well10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_shield1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_shield</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_job</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventreroll</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_shield2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_shield3</t>
+  </si>
+  <si>
+    <t>get_trait</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_member</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>random1(랜덤 탱커)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_shield4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_gold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_shield5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_shield6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_discovery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>discovery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_discovery1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>value3</t>
+  </si>
+  <si>
+    <t>value4</t>
+  </si>
+  <si>
+    <t>value5</t>
+  </si>
+  <si>
+    <t>value6</t>
+  </si>
+  <si>
+    <t>value7</t>
+  </si>
+  <si>
+    <t>value8</t>
+  </si>
+  <si>
+    <t>value9</t>
+  </si>
+  <si>
+    <t>value10</t>
+  </si>
+  <si>
+    <t>value11</t>
+  </si>
+  <si>
+    <t>value12</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 아이디</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>type/이벤트 타입</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>문장 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 키값</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 타입</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>값_1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>값_2</t>
+  </si>
+  <si>
+    <t>값_3</t>
+  </si>
+  <si>
+    <t>값_4</t>
+  </si>
+  <si>
+    <t>값_5</t>
+  </si>
+  <si>
+    <t>값_6</t>
+  </si>
+  <si>
+    <t>값_7</t>
+  </si>
+  <si>
+    <t>값_8</t>
+  </si>
+  <si>
+    <t>값_9</t>
+  </si>
+  <si>
+    <t>값_10</t>
+  </si>
+  <si>
+    <t>값_11</t>
+  </si>
+  <si>
+    <t>값_12</t>
+  </si>
+  <si>
+    <t>대화창의 내용을 갱신</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_gold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>소지금 체크</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 내용을 갱신하고 넘어갈 이벤트 id 지정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티의 소지금이 특정 수만큼 있는지 확인하고 넘어갈 id 지정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 id로 넘어감</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>정해진 백분율 확률로 넘어갈 id 지정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_gold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>소지금 변경</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>소지금을 얻거나 잃는 이벤트. 0원보다 밑으로 내려가지 않음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>get_damage</t>
-  </si>
-  <si>
-    <t>gacha</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 부여</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_item</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 지정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 아이템을 Dialogue에 출력하거나 획득하기 위해 사용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>get_item</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 획득</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템을 획득</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>end</t>
-  </si>
-  <si>
-    <t>choice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_well</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_well1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_well2</t>
-  </si>
-  <si>
-    <t>Dialogue_event_well3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_well5</t>
-  </si>
-  <si>
-    <t>Dialogue_event_well4</t>
-  </si>
-  <si>
-    <t>Dialogue_event_well6</t>
-  </si>
-  <si>
-    <t>Dialogue_event_well7</t>
-  </si>
-  <si>
-    <t>random_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_well8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_well9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_well10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_shield1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_shield</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 종료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트를 종료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_trait</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성 획득</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>check_job</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업 체크</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티에 해당 직업을 가진 캐릭터가 있는지 확인하고 넘어갈 id 지정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_member</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트의 대상이 되거나 Dialogue에서 이름을 출력할 캐릭터를 지정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버 지정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>discovery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 발견</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 3중 1택 획득 선택지를 제공</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입별 value 내용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_Table</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시될 대화문 키값</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시될 이미지 키값</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 선택지 문장 키값</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 선택지로 이동할 id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 선택지 문장 키값</t>
+  </si>
+  <si>
+    <t>2번 선택지로 이동할 id</t>
+  </si>
+  <si>
+    <t>3번 선택지 문장 키값</t>
+  </si>
+  <si>
+    <t>3번 선택지로 이동할 id</t>
+  </si>
+  <si>
+    <t>4번 선택지 문장 키값</t>
+  </si>
+  <si>
+    <t>4번 선택지로 이동할 id</t>
+  </si>
+  <si>
+    <t>5번 선택지 문장 키값</t>
+  </si>
+  <si>
+    <t>5번 선택지로 이동할 id</t>
+  </si>
+  <si>
+    <t>6번 선택지 문장 키값</t>
+  </si>
+  <si>
+    <t>6번 선택지로 이동할 id</t>
+  </si>
+  <si>
+    <t>value1의 금화 이상인 경우 이동할 id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1의 금화 미만인 경우 이동할 id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동할 id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value2의 id로 이동할 확률(백분율)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value4의 id로 이동할 확률(백분율)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value6의 id로 이동할 확률(백분율)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value8의 id로 이동할 확률(백분율)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value10의 id로 이동할 확률(백분율)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value12의 id로 이동할 확률(백분율)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 점프</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_jump</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득할 골드량(음수일 경우 차감)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인할 골드의 소지량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1로 아이템key, 2로 가챠key 사용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정할 아이템key나 가챠key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득 갯수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>eventreroll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_shield2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_shield3</t>
-  </si>
-  <si>
-    <t>get_trait</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_member</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>random1(랜덤 탱커)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>member</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_shield4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_check</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_gold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_shield5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_shield6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_discovery</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>discovery</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_discovery1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discovery로 가챠999의 아이템 3개중 하나를 선택하는 이벤트 발생</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트리롤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터에게 데미지 부여. 음수로 회복 부여</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 이벤트를 불러오고 현재 이벤트 종료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 캐릭터가 특성을 획득</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성 id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업 id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업이 있을 경우 이동할 id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업이 없을 경우 이동할 id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버지정 참조</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_member/멤버지정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가챠id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄 데미지(음수일 경우 차감)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0으로 지정된 캐릭터, 1로 파티 전체에 부여</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티 내 랜덤 캐릭터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티 내 랜덤 전사 캐릭터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티 내 랜덤 도적 캐릭터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티 내 랜덤 궁수 캐릭터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티 내 랜덤 마법사 캐릭터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티 내 랜덤 성직자 캐릭터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템key (0인 경우 지정한 아이템)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어OTF"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -278,8 +764,55 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어OTF"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어OTF"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +825,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -317,45 +862,111 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -636,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,12 +1265,25 @@
     <col min="8" max="8" width="13.625" style="7" customWidth="1"/>
     <col min="9" max="10" width="9" style="7"/>
     <col min="11" max="11" width="13.5" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="12" max="15" width="9" style="7"/>
+    <col min="16" max="16" width="2.625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="9" style="7"/>
+    <col min="18" max="18" width="16.375" style="19" customWidth="1"/>
+    <col min="19" max="19" width="24.625" style="19" customWidth="1"/>
+    <col min="20" max="20" width="26.5" style="19" customWidth="1"/>
+    <col min="21" max="21" width="26.75" style="19" customWidth="1"/>
+    <col min="22" max="22" width="31" style="19" customWidth="1"/>
+    <col min="23" max="23" width="14" style="19" customWidth="1"/>
+    <col min="24" max="24" width="44.5" style="19" customWidth="1"/>
+    <col min="25" max="25" width="9" style="19"/>
+    <col min="26" max="26" width="9" style="7" customWidth="1"/>
+    <col min="27" max="27" width="22.375" style="7" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>12</v>
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -667,41 +1291,55 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>13</v>
+      <c r="D1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -711,25 +1349,39 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>13</v>
+      <c r="R2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="V2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Z2" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA2" s="24"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="6">
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" s="6">
         <v>26</v>
@@ -739,16 +1391,40 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
+      <c r="R3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -759,16 +1435,40 @@
       <c r="F4" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>13</v>
+      <c r="R4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -776,8 +1476,8 @@
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>17</v>
+      <c r="D5" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="8"/>
@@ -787,10 +1487,34 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
+      <c r="R5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -803,16 +1527,40 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
+      <c r="R6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z6" s="19">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -831,16 +1579,40 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
+      <c r="R7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="X7" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
+      <c r="C8" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="D8" s="6">
         <v>20</v>
@@ -863,16 +1635,40 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>13</v>
+      <c r="R8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="W8" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="X8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
+      <c r="C9" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="D9" s="6">
         <v>33</v>
@@ -895,10 +1691,30 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
+      <c r="R9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -906,8 +1722,8 @@
       <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>18</v>
+      <c r="D10" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -917,10 +1733,30 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>13</v>
+      <c r="R10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -939,10 +1775,30 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>13</v>
+      <c r="R11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -959,12 +1815,32 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>13</v>
+      <c r="R12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="W12" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -972,8 +1848,8 @@
       <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>19</v>
+      <c r="D13" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -983,10 +1859,30 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>13</v>
+      <c r="R13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="X13" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -1005,10 +1901,30 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>13</v>
+      <c r="R14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="W14" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="X14" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -1027,10 +1943,30 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>13</v>
+      <c r="R15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -1038,8 +1974,8 @@
       <c r="C16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>20</v>
+      <c r="D16" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1049,34 +1985,74 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>13</v>
+      <c r="R16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="W16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>13</v>
+      <c r="R17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="W17" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="X17" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -1095,56 +2071,96 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>13</v>
+      <c r="R18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16">
         <v>999</v>
       </c>
-      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>13</v>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" s="8">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>13</v>
+      <c r="R20" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -1152,8 +2168,8 @@
       <c r="C21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>22</v>
+      <c r="D21" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1163,10 +2179,49 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>13</v>
+      <c r="R21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="W21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD21" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -1185,10 +2240,49 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>13</v>
+      <c r="R22" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="U22" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="V22" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="W22" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="X22" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y22" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z22" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA22" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB22" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC22" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD22" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
@@ -1196,8 +2290,8 @@
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>23</v>
+      <c r="D23" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1207,10 +2301,49 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>13</v>
+      <c r="R23" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="V23" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB23" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC23" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD23" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
@@ -1229,10 +2362,49 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>13</v>
+      <c r="R24" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="T24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="U24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="W24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="X24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD24" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
@@ -1240,8 +2412,8 @@
       <c r="C25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>24</v>
+      <c r="D25" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1251,10 +2423,49 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>13</v>
+      <c r="R25" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="S25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="T25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="U25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="V25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="X25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD25" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
@@ -1273,16 +2484,55 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>13</v>
+      <c r="R26" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="T26" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V26" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="W26" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y26" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z26" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA26" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB26" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC26" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD26" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1293,18 +2543,57 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>26</v>
+      <c r="R27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="V27" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="W27" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="X27" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y27" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z27" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA27" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB27" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC27" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD27" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B28" s="7">
         <v>1</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="12">
+      <c r="C28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="10">
         <v>1</v>
       </c>
       <c r="E28" s="7">
@@ -1313,35 +2602,152 @@
       <c r="F28" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>26</v>
+      <c r="R28" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="T28" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="U28" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="V28" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="W28" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="X28" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y28" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z28" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA28" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB28" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC28" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD28" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B29" s="7">
         <v>2</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>26</v>
+      <c r="C29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="U29" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="V29" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="W29" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="X29" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y29" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z29" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA29" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB29" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC29" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD29" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B30" s="7">
         <v>3</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>26</v>
+      <c r="C30" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="U30" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="V30" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="W30" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="X30" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y30" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z30" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA30" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB30" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC30" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD30" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B31" s="7">
         <v>4</v>
@@ -1349,47 +2755,164 @@
       <c r="C31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>26</v>
+      <c r="D31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="T31" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="U31" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="V31" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="W31" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="X31" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y31" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z31" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA31" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB31" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC31" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD31" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B32" s="7">
         <v>5</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>31</v>
+      <c r="C32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="R32" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="V32" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="W32" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="X32" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y32" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z32" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA32" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB32" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC32" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD32" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B33" s="7">
         <v>6</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>33</v>
+      <c r="C33" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="D33" s="7">
         <v>1</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>26</v>
+      <c r="E33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="T33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="U33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="V33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="W33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="X33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD33" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B34" s="7">
         <v>7</v>
@@ -1397,30 +2920,108 @@
       <c r="C34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>26</v>
+      <c r="D34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="S34" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="T34" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="U34" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="V34" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="W34" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="X34" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y34" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z34" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA34" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB34" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC34" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD34" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B35" s="7">
         <v>8</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>26</v>
+      <c r="C35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R35" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="T35" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="U35" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="V35" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="W35" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="X35" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y35" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z35" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA35" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB35" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC35" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD35" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B36" s="7">
         <v>9</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>39</v>
+      <c r="C36" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="D36" s="7">
         <v>50</v>
@@ -1434,24 +3035,63 @@
       <c r="G36" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>26</v>
+      <c r="R36" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="S36" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="T36" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="U36" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="V36" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="W36" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="X36" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y36" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z36" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA36" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB36" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC36" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD36" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B37" s="7">
         <v>10</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>40</v>
+      <c r="C37" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D37" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>26</v>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B38" s="7">
         <v>11</v>
@@ -1459,24 +3099,24 @@
       <c r="C38" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>26</v>
+      <c r="D38" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B39" s="7">
         <v>12</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>26</v>
+      <c r="C39" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B40" s="7">
         <v>13</v>
@@ -1484,24 +3124,24 @@
       <c r="C40" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>26</v>
+      <c r="D40" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B41" s="7">
         <v>14</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="B42" s="7">
         <v>1</v>
@@ -1509,37 +3149,35 @@
       <c r="C42" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>43</v>
+      <c r="D42" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B43" s="7">
         <v>2</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>44</v>
+      <c r="C43" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="D43" s="7">
         <v>999</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>43</v>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B44" s="7">
         <v>3</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D44" s="8">
         <v>999</v>
@@ -1548,22 +3186,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>43</v>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B45" s="7">
         <v>4</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="C45" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="4">
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="R20:AD20"/>
+    <mergeCell ref="Z2:AA2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>